--- a/리미트리 통합 제품 .xlsx
+++ b/리미트리 통합 제품 .xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFFEAE1A-32A9-459F-8E4F-FCDBC83ED616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="251">
   <si>
     <t>sku</t>
   </si>
@@ -93,10 +92,6 @@
   </si>
   <si>
     <t>BRIMNES 브림네스</t>
-  </si>
-  <si>
-    <t>옷장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>베스트셀러,신상품,기본템</t>
@@ -1146,11 +1141,51 @@
     <t>단순성, 견고성, 배치 용이성 높이가 낮아 창문이나 경사진 천장 밑에 놓기 좋습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>/assets/img/product/closet/brimnes-wardrobe-with-3-doors-white__0176787_pe329567_s5.avif,/assets/img/product/closet/brimnes-wardrobe-with-3-doors-white__0746973_pe744299_s5.avif</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/assets/img/product/closet/hauga-wardrobe-with-sliding-doors-white__0898797_pe782657_s5.avif,/assets/img/product/closet/hauga-wardrobe-with-sliding-doors-white__0931942_pe791324_s5.avif</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/assets/img/product/closet/hauga-wardrobe-with-sliding-doors-beige__0949021_pe799474_s5.avif,/assets/img/product/closet/hauga-wardrobe-with-sliding-doors-beige__0977721_pe813901_s5.avif</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/assets/img/product/closet/rakkestad-wardrobe-with-sliding-doors-black-brown__0823992_pe776023_s5.avif,/assets/img/product/closet/rakkestad-wardrobe-with-sliding-doors-black-brown__0998401_pe823024_s5.avif</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/assets/img/product/closet/mehamn-pair-of-sliding-doors-double-sided-white-stained-oak-effect-white__0704046_pe724966_s5.avif,/assets/img/product/closet/mehamn-pair-of-sliding-doors-double-sided-white-stained-oak-effect-white__1183058_pe897406_s5.avif</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/assets/img/product/closet/vilhatten-wardrobe-with-2-doors-and-2-drawers-oak-effect__1163155_pe890133_s5.avif,/assets/img/product/closet/vilhatten-wardrobe-with-2-doors-and-2-drawers-oak-effect__1163149_pe890130_s5.avif</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/assets/img/product/closet/gullaberg-wardrobe-white__1384133_pe962851_s5.avif,/assets/img/product/closet/gullaberg-wardrobe-white__1416978_pe975757_s5.avif</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/assets/img/product/closet/gullaberg-wardrobe-grey__1435752_pe983925_s5.avif,/assets/img/product/closet/gullaberg-wardrobe-grey__1416968_pe975747_s5.avif</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/assets/img/product/closet/idanaes-cabinet-with-bi-folding-doors-dark-brown-stained__0898845_pe782660_s5.avif,/assets/img/product/closet/idanaes-cabinet-with-bi-folding-doors-dark-brown-stained__0939200_pe794445_s5.avif</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷장,거실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -1552,12 +1587,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="O23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P35" sqref="P35:P39"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1570,7 +1605,7 @@
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="34" customWidth="1"/>
+    <col min="11" max="11" width="107.75" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
     <col min="13" max="13" width="30" customWidth="1"/>
     <col min="14" max="14" width="40" customWidth="1"/>
@@ -1662,31 +1697,31 @@
         <v>150</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>241</v>
       </c>
       <c r="L2" s="2">
         <v>500</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="R2" s="2">
         <v>15</v>
@@ -1694,10 +1729,10 @@
     </row>
     <row r="3" spans="1:18" ht="50.25" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C3" s="2">
         <v>296000</v>
@@ -1718,31 +1753,31 @@
         <v>150</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>29</v>
+        <v>242</v>
       </c>
       <c r="L3" s="2">
         <v>500</v>
       </c>
       <c r="M3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="O3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="R3" s="2">
         <v>15</v>
@@ -1750,10 +1785,10 @@
     </row>
     <row r="4" spans="1:18" ht="50.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2">
         <v>296000</v>
@@ -1774,31 +1809,31 @@
         <v>150</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="L4" s="2">
         <v>500</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="O4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R4" s="2">
         <v>15</v>
@@ -1806,10 +1841,10 @@
     </row>
     <row r="5" spans="1:18" ht="50.25" customHeight="1">
       <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C5" s="2">
         <v>224000</v>
@@ -1830,31 +1865,31 @@
         <v>150</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>37</v>
+        <v>244</v>
       </c>
       <c r="L5" s="2">
         <v>500</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="P5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R5" s="2">
         <v>15</v>
@@ -1862,10 +1897,10 @@
     </row>
     <row r="6" spans="1:18" ht="50.25" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C6" s="2">
         <v>260000</v>
@@ -1886,31 +1921,31 @@
         <v>150</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="K6" s="2" t="s">
-        <v>43</v>
+        <v>245</v>
       </c>
       <c r="L6" s="2">
         <v>500</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="O6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="R6" s="2">
         <v>15</v>
@@ -1918,10 +1953,10 @@
     </row>
     <row r="7" spans="1:18" ht="50.25" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C7" s="2">
         <v>251000</v>
@@ -1942,31 +1977,31 @@
         <v>150</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>48</v>
+        <v>246</v>
       </c>
       <c r="L7" s="2">
         <v>500</v>
       </c>
       <c r="M7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="O7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R7" s="2">
         <v>15</v>
@@ -1974,10 +2009,10 @@
     </row>
     <row r="8" spans="1:18" ht="50.25" customHeight="1">
       <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C8" s="2">
         <v>521000</v>
@@ -1998,31 +2033,31 @@
         <v>150</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="K8" s="2" t="s">
-        <v>53</v>
+        <v>247</v>
       </c>
       <c r="L8" s="2">
         <v>500</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="O8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="R8" s="2">
         <v>15</v>
@@ -2030,10 +2065,10 @@
     </row>
     <row r="9" spans="1:18" ht="50.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2">
         <v>521000</v>
@@ -2054,31 +2089,31 @@
         <v>150</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="K9" s="2" t="s">
-        <v>57</v>
+        <v>248</v>
       </c>
       <c r="L9" s="2">
         <v>500</v>
       </c>
       <c r="M9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="O9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R9" s="2">
         <v>15</v>
@@ -2086,10 +2121,10 @@
     </row>
     <row r="10" spans="1:18" ht="50.25" customHeight="1">
       <c r="A10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C10" s="2">
         <v>449000</v>
@@ -2110,31 +2145,31 @@
         <v>150</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="K10" s="2" t="s">
-        <v>61</v>
+        <v>249</v>
       </c>
       <c r="L10" s="2">
         <v>500</v>
       </c>
       <c r="M10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="O10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R10" s="2">
         <v>15</v>
@@ -2142,10 +2177,10 @@
     </row>
     <row r="11" spans="1:18" ht="50.25" customHeight="1">
       <c r="A11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C11" s="2">
         <v>24900</v>
@@ -2157,7 +2192,7 @@
         <v>20260124</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="2">
         <v>5</v>
@@ -2166,31 +2201,31 @@
         <v>150</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="L11" s="2">
         <v>500</v>
       </c>
       <c r="M11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q11" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="R11" s="2">
         <v>1000</v>
@@ -2198,10 +2233,10 @@
     </row>
     <row r="12" spans="1:18" ht="50.25" customHeight="1">
       <c r="A12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C12" s="2">
         <v>99900</v>
@@ -2213,7 +2248,7 @@
         <v>20260124</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" s="2">
         <v>5</v>
@@ -2222,31 +2257,31 @@
         <v>150</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="L12" s="2">
         <v>500</v>
       </c>
       <c r="M12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="R12" s="2">
         <v>1000</v>
@@ -2254,10 +2289,10 @@
     </row>
     <row r="13" spans="1:18" ht="50.25" customHeight="1">
       <c r="A13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C13" s="2">
         <v>29900</v>
@@ -2269,7 +2304,7 @@
         <v>20260124</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="2">
         <v>5</v>
@@ -2278,31 +2313,31 @@
         <v>150</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="L13" s="2">
         <v>500</v>
       </c>
       <c r="M13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="O13" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="P13" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R13" s="2">
         <v>1000</v>
@@ -2310,10 +2345,10 @@
     </row>
     <row r="14" spans="1:18" ht="50.25" customHeight="1">
       <c r="A14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C14" s="2">
         <v>119000</v>
@@ -2325,7 +2360,7 @@
         <v>20260124</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="2">
         <v>5</v>
@@ -2334,31 +2369,31 @@
         <v>150</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="L14" s="2">
         <v>500</v>
       </c>
       <c r="M14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="O14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R14" s="2">
         <v>1000</v>
@@ -2366,10 +2401,10 @@
     </row>
     <row r="15" spans="1:18" ht="50.25" customHeight="1">
       <c r="A15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C15" s="2">
         <v>9900</v>
@@ -2381,7 +2416,7 @@
         <v>20260124</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" s="2">
         <v>5</v>
@@ -2390,31 +2425,31 @@
         <v>150</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="L15" s="2">
         <v>500</v>
       </c>
       <c r="M15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="O15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="P15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R15" s="2">
         <v>1000</v>
@@ -2422,10 +2457,10 @@
     </row>
     <row r="16" spans="1:18" ht="50.25" customHeight="1">
       <c r="A16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="C16" s="2">
         <v>69900</v>
@@ -2437,7 +2472,7 @@
         <v>20260124</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" s="2">
         <v>5</v>
@@ -2446,31 +2481,31 @@
         <v>150</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="L16" s="2">
         <v>500</v>
       </c>
       <c r="M16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="N16" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="O16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R16" s="2">
         <v>1000</v>
@@ -2478,10 +2513,10 @@
     </row>
     <row r="17" spans="1:18" ht="50.25" customHeight="1">
       <c r="A17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="C17" s="2">
         <v>25000</v>
@@ -2493,7 +2528,7 @@
         <v>20260124</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="2">
         <v>5</v>
@@ -2502,31 +2537,31 @@
         <v>150</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L17" s="2">
         <v>500</v>
       </c>
       <c r="M17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N17" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="O17" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="P17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q17" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="R17" s="2">
         <v>1000</v>
@@ -2534,10 +2569,10 @@
     </row>
     <row r="18" spans="1:18" ht="50.25" customHeight="1">
       <c r="A18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C18" s="2">
         <v>29900</v>
@@ -2549,7 +2584,7 @@
         <v>20260124</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G18" s="2">
         <v>5</v>
@@ -2558,31 +2593,31 @@
         <v>150</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="L18" s="2">
         <v>500</v>
       </c>
       <c r="M18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N18" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="O18" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="O18" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="P18" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R18" s="2">
         <v>1000</v>
@@ -2590,10 +2625,10 @@
     </row>
     <row r="19" spans="1:18" ht="50.25" customHeight="1">
       <c r="A19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C19" s="2">
         <v>140500</v>
@@ -2605,7 +2640,7 @@
         <v>20260124</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" s="2">
         <v>5</v>
@@ -2614,31 +2649,31 @@
         <v>150</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L19" s="2">
         <v>500</v>
       </c>
       <c r="M19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N19" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="O19" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="O19" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="P19" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R19" s="2">
         <v>1000</v>
@@ -2646,10 +2681,10 @@
     </row>
     <row r="20" spans="1:18" ht="50.25" customHeight="1">
       <c r="A20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C20" s="2">
         <v>49900</v>
@@ -2661,7 +2696,7 @@
         <v>20260124</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20" s="2">
         <v>5</v>
@@ -2670,31 +2705,31 @@
         <v>150</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="L20" s="2">
         <v>500</v>
       </c>
       <c r="M20" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N20" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="O20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R20" s="2">
         <v>1000</v>
@@ -2702,10 +2737,10 @@
     </row>
     <row r="21" spans="1:18" ht="50.25" customHeight="1">
       <c r="A21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C21" s="2">
         <v>3900</v>
@@ -2717,7 +2752,7 @@
         <v>46387</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G21" s="2">
         <v>5</v>
@@ -2726,31 +2761,31 @@
         <v>150</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="L21" s="2">
         <v>500</v>
       </c>
       <c r="M21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N21" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="O21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R21" s="2">
         <v>100</v>
@@ -2758,10 +2793,10 @@
     </row>
     <row r="22" spans="1:18" ht="50.25" customHeight="1">
       <c r="A22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C22" s="2">
         <v>1000</v>
@@ -2773,7 +2808,7 @@
         <v>46387</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22" s="2">
         <v>5</v>
@@ -2782,31 +2817,31 @@
         <v>150</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L22" s="2">
         <v>500</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R22" s="2">
         <v>150</v>
@@ -2814,10 +2849,10 @@
     </row>
     <row r="23" spans="1:18" ht="50.25" customHeight="1">
       <c r="A23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="C23" s="2">
         <v>1900</v>
@@ -2829,7 +2864,7 @@
         <v>46387</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" s="2">
         <v>5</v>
@@ -2838,31 +2873,31 @@
         <v>150</v>
       </c>
       <c r="I23" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="L23" s="2">
         <v>500</v>
       </c>
       <c r="M23" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="N23" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="O23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R23" s="2">
         <v>150</v>
@@ -2870,10 +2905,10 @@
     </row>
     <row r="24" spans="1:18" ht="50.25" customHeight="1">
       <c r="A24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="C24" s="2">
         <v>1900</v>
@@ -2885,7 +2920,7 @@
         <v>46387</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G24" s="2">
         <v>5</v>
@@ -2894,31 +2929,31 @@
         <v>150</v>
       </c>
       <c r="I24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="L24" s="2">
         <v>500</v>
       </c>
       <c r="M24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N24" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="O24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q24" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="R24" s="2">
         <v>100</v>
@@ -2926,10 +2961,10 @@
     </row>
     <row r="25" spans="1:18" ht="50.25" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C25" s="2">
         <v>1900</v>
@@ -2941,7 +2976,7 @@
         <v>46387</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G25" s="2">
         <v>5</v>
@@ -2950,31 +2985,31 @@
         <v>150</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L25" s="2">
         <v>500</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R25" s="2">
         <v>120</v>
@@ -2982,10 +3017,10 @@
     </row>
     <row r="26" spans="1:18" ht="50.25" customHeight="1">
       <c r="A26" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="C26" s="2">
         <v>7900</v>
@@ -2997,7 +3032,7 @@
         <v>46387</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G26" s="2">
         <v>5</v>
@@ -3006,31 +3041,31 @@
         <v>150</v>
       </c>
       <c r="I26" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="L26" s="2">
         <v>500</v>
       </c>
       <c r="M26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="N26" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="O26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R26" s="2">
         <v>130</v>
@@ -3038,10 +3073,10 @@
     </row>
     <row r="27" spans="1:18" ht="50.25" customHeight="1">
       <c r="A27" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="C27" s="2">
         <v>2900</v>
@@ -3053,7 +3088,7 @@
         <v>46387</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27" s="2">
         <v>5</v>
@@ -3062,31 +3097,31 @@
         <v>150</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L27" s="2">
         <v>500</v>
       </c>
       <c r="M27" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="N27" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="O27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R27" s="2">
         <v>100</v>
@@ -3094,10 +3129,10 @@
     </row>
     <row r="28" spans="1:18" ht="50.25" customHeight="1">
       <c r="A28" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="C28" s="2">
         <v>7900</v>
@@ -3109,7 +3144,7 @@
         <v>46387</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28" s="2">
         <v>5</v>
@@ -3118,31 +3153,31 @@
         <v>150</v>
       </c>
       <c r="I28" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="L28" s="2">
         <v>500</v>
       </c>
       <c r="M28" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="N28" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="N28" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="O28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R28" s="2">
         <v>150</v>
@@ -3150,10 +3185,10 @@
     </row>
     <row r="29" spans="1:18" ht="50.25" customHeight="1">
       <c r="A29" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="C29" s="2">
         <v>9900</v>
@@ -3165,7 +3200,7 @@
         <v>46387</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="2">
         <v>5</v>
@@ -3174,31 +3209,31 @@
         <v>150</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L29" s="2">
         <v>500</v>
       </c>
       <c r="M29" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="O29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R29" s="2">
         <v>150</v>
@@ -3206,10 +3241,10 @@
     </row>
     <row r="30" spans="1:18" ht="50.25" customHeight="1">
       <c r="A30" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="C30" s="2">
         <v>1809000</v>
@@ -3230,31 +3265,31 @@
         <v>150</v>
       </c>
       <c r="I30" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="L30" s="2">
         <v>500</v>
       </c>
       <c r="M30" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N30" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="O30" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="P30" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q30" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="R30" s="2">
         <v>100</v>
@@ -3262,10 +3297,10 @@
     </row>
     <row r="31" spans="1:18" ht="50.25" customHeight="1">
       <c r="A31" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="C31" s="2">
         <v>799000</v>
@@ -3286,31 +3321,31 @@
         <v>150</v>
       </c>
       <c r="I31" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="L31" s="2">
         <v>500</v>
       </c>
       <c r="M31" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="N31" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="O31" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="P31" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q31" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="R31" s="2">
         <v>100</v>
@@ -3318,10 +3353,10 @@
     </row>
     <row r="32" spans="1:18" ht="50.25" customHeight="1">
       <c r="A32" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="C32" s="2">
         <v>1040000</v>
@@ -3342,31 +3377,31 @@
         <v>150</v>
       </c>
       <c r="I32" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="L32" s="2">
         <v>500</v>
       </c>
       <c r="M32" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N32" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="O32" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="O32" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="P32" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R32" s="2">
         <v>100</v>
@@ -3374,10 +3409,10 @@
     </row>
     <row r="33" spans="1:18" ht="50.25" customHeight="1">
       <c r="A33" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="C33" s="2">
         <v>2040000</v>
@@ -3398,31 +3433,31 @@
         <v>150</v>
       </c>
       <c r="I33" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="L33" s="2">
         <v>500</v>
       </c>
       <c r="M33" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N33" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="O33" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R33" s="2">
         <v>100</v>
@@ -3430,10 +3465,10 @@
     </row>
     <row r="34" spans="1:18" ht="50.25" customHeight="1">
       <c r="A34" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="C34" s="2">
         <v>1549000</v>
@@ -3454,31 +3489,31 @@
         <v>150</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L34" s="2">
         <v>500</v>
       </c>
       <c r="M34" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="N34" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="O34" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="O34" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="P34" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R34" s="2">
         <v>100</v>
@@ -3486,10 +3521,10 @@
     </row>
     <row r="35" spans="1:18" ht="50.25" customHeight="1">
       <c r="A35" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="C35" s="2">
         <v>139000</v>
@@ -3510,31 +3545,31 @@
         <v>130</v>
       </c>
       <c r="I35" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="K35" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="L35" s="2">
         <v>500</v>
       </c>
       <c r="M35" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="N35" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>221</v>
-      </c>
       <c r="O35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R35" s="2">
         <v>130</v>
@@ -3542,10 +3577,10 @@
     </row>
     <row r="36" spans="1:18" ht="50.25" customHeight="1">
       <c r="A36" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="C36" s="2">
         <v>119000</v>
@@ -3566,31 +3601,31 @@
         <v>120</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J36" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="L36" s="2">
         <v>500</v>
       </c>
       <c r="M36" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="N36" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="N36" s="3" t="s">
-        <v>227</v>
-      </c>
       <c r="O36" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R36" s="2">
         <v>140</v>
@@ -3598,10 +3633,10 @@
     </row>
     <row r="37" spans="1:18" ht="50.25" customHeight="1">
       <c r="A37" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="C37" s="2">
         <v>599000</v>
@@ -3622,31 +3657,31 @@
         <v>150</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L37" s="2">
         <v>500</v>
       </c>
       <c r="M37" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="N37" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="N37" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="O37" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R37" s="2">
         <v>140</v>
@@ -3654,10 +3689,10 @@
     </row>
     <row r="38" spans="1:18" ht="50.25" customHeight="1">
       <c r="A38" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="C38" s="2">
         <v>399000</v>
@@ -3678,31 +3713,31 @@
         <v>150</v>
       </c>
       <c r="I38" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="K38" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L38" s="2">
         <v>500</v>
       </c>
       <c r="M38" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="N38" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="N38" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="O38" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R38" s="2">
         <v>140</v>
@@ -3710,10 +3745,10 @@
     </row>
     <row r="39" spans="1:18" ht="50.25" customHeight="1">
       <c r="A39" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="C39" s="2">
         <v>50000</v>
@@ -3734,31 +3769,31 @@
         <v>150</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L39" s="2">
         <v>500</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R39" s="2">
         <v>120</v>
